--- a/docs/PT2/PT2_12.11.2024_output.xlsx
+++ b/docs/PT2/PT2_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731606459.6984856</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731606461.2739363</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606459.6984856.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606461.2739363.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>136.44</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>136.36</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731606463.1156995</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731606463.6164722</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606463.1156995.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606463.6164722.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>136</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731606466.9419687</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731606469.5299518</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606466.9419687.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606469.5299518.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.64</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>135.4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.2399999999999807</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731606471.7727637</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731606474.0734348</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606471.7727637.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606474.0734348.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>135.12</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>135.15</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731606476.007245</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731606476.9338691</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606476.007245.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731606476.9338691.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>135.29</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>134.97</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731606482.0972118</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731606485.0732963</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606482.0972118.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606485.0732963.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7050.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7037</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-13.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731606486.3473806</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731606491.775887</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606486.3473806.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606491.775887.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>7027.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>7009.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-18</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731606491.7908354</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731606491.965301</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606491.7908354.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606491.965301.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>7009.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6999</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>10.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731606500.807092</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731606501.6101565</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606500.807092.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606501.6101565.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>7003</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>7001</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>2</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1007,95 +1077,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731606504.1105628</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731606504.1105628.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731606504.1105628.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>7005</v>
       </c>
-      <c r="J12" t="n">
-        <v>7005</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>7006.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731606504.3971972</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731606505.4874368</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606504.3971972.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606505.4874368.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>488.65</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>489.9</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>1.25</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731606507.817014</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731606510.19576</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606507.817014.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606510.19576.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>492.45</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>491.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.9499999999999886</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731606517.7061636</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731606518.8864279</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606517.7061636.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606518.8864279.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>489.75</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>489.05</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.6999999999999886</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731606522.4820895</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731606524.6995006</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606522.4820895.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606524.6995006.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>486.85</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>486.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.25</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731606526.142928</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731606526.770162</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606526.142928.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606526.770162.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>486.25</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>485.8</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1311,95 +1417,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731606528.5017135</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731606528.5017135.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731606528.5017135.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>485.05</v>
       </c>
-      <c r="J18" t="n">
-        <v>485.05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>484.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5500000000000114</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731606529.9366174</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731606530.5004957</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606529.9366174.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606530.5004957.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>940.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>941</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731606531.2244778</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731606531.7706656</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606531.2244778.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606531.7706656.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>941.6</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>946</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>4.399999999999977</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731606532.9155827</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731606535.6149364</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606532.9155827.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606535.6149364.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>945.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>948.2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731606536.6798692</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731606539.0839298</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606536.6798692.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606539.0839298.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>947.8</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>945</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-2.799999999999955</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731606540.7886496</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731606541.4169219</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606540.7886496.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606541.4169219.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>941</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>939.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731606542.5192668</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731606543.5777366</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606542.5192668.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606543.5777366.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>938</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>937.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731606546.8376687</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731606546.8915248</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606546.8376687.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606546.8915248.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>935.2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>934.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731606546.9459665</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731606550.044141</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606546.9459665.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606550.044141.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>935</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>935.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731606556.0618117</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731606558.484097</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606556.0618117.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606558.484097.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>37.995</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>38.07</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.07500000000000284</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731606561.077369</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731606562.2346754</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606561.077369.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606562.2346754.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>37.88</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>37.855</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.02500000000000568</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731606569.8706634</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731606571.503422</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606569.8706634.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606571.503422.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>38.13</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>38.18</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731606573.0136251</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731606573.1528575</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606573.0136251.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606573.1528575.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>38.15</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>38.18</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731606574.1582959</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731606576.7825227</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606574.1582959.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606576.7825227.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>38.17</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>38.14</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731606578.4712167</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731606580.3083549</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606578.4712167.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606580.3083549.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>38.035</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>38.135</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731606591.3456433</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731606592.2946923</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606591.3456433.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606592.2946923.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1243.4</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1241.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.800000000000182</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731606593.399645</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731606594.2538977</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606593.399645.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606594.2538977.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1241.4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1243.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-2</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2187,51 +2395,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731606599.0093858</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731606601.1537397</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606599.0093858.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606601.1537397.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1237.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1233.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>4.199999999999818</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731606602.1658158</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731606604.9652019</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606602.1658158.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606604.9652019.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1235</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1237.6</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-2.599999999999909</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731606608.7869983</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731606611.6358466</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606608.7869983.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606611.6358466.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>81.15000000000001</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>81.06999999999999</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.08000000000001251</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2343,51 +2569,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731606615.4424088</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731606616.7592459</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606615.4424088.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606616.7592459.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>80.88</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>81</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2395,51 +2627,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731606618.9483154</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731606620.729959</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606618.9483154.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606620.729959.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>80.79000000000001</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>80.77</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2447,51 +2685,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731606622.1921399</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731606622.7918363</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606622.1921399.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606622.7918363.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>80.72</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>80.3</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -2499,51 +2743,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731606623.946002</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731606625.983802</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606623.946002.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606625.983802.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>80.43000000000001</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>80.44</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.009999999999990905</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2551,95 +2801,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731606627.4071424</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731606627.4071424.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731606627.4071424.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>80.54000000000001</v>
       </c>
-      <c r="J42" t="n">
-        <v>80.54000000000001</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>80.95999999999999</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.4199999999999875</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731606643.8470037</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731606644.9930735</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606643.8470037.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606644.9930735.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>14.434</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>14.463</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.02899999999999991</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2647,51 +2909,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731606647.0818326</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731606647.7878208</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606647.0818326.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606647.7878208.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>14.429</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>14.392</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.03700000000000081</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2699,51 +2967,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731606648.906941</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731606651.3054116</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606648.906941.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606651.3054116.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>14.37</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>14.342</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.02799999999999869</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731606652.8854342</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731606655.6495688</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606652.8854342.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731606655.6495688.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>14.37</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>14.383</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.0129999999999999</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2803,51 +3083,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731606664.083955</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731606666.4850633</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606664.083955.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606666.4850633.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>106.75</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>106.95</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2855,51 +3141,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731606667.4494853</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731606668.3285398</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606667.4494853.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606668.3285398.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>106.86</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>106.72</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2907,51 +3199,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731606669.6047354</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731606671.3942552</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606669.6047354.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606671.3942552.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>106.27</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>106.18</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.0899999999999892</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2959,51 +3257,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731606672.8622088</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731606673.4989903</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606672.8622088.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606673.4989903.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>105.95</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>105.87</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3011,51 +3315,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731606673.6322498</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731606676.0436978</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606673.6322498.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606676.0436978.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>105.91</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>106.06</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -3063,51 +3373,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731606678.3579533</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731606679.0354056</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606678.3579533.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606679.0354056.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>106.12</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>105.98</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3115,51 +3431,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731606681.714741</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731606681.8094156</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606681.714741.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606681.8094156.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>106.17</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>106.27</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3167,95 +3489,107 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731606681.8713417</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731606681.8713417.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731606681.8713417.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>106.2</v>
       </c>
-      <c r="J54" t="n">
-        <v>106.2</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>106.1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1000000000000085</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731606690.695094</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731606691.6264377</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731606690.695094.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731606691.6264377.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>349.79</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>349.71</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.08000000000004093</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3263,51 +3597,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731606694.26784</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731606695.4761999</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731606694.26784.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731606695.4761999.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>349.01</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>348.73</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2799999999999727</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3315,51 +3655,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731606698.1495874</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731606698.9897654</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731606698.1495874.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731606698.9897654.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>347.19</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>346.16</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>1.029999999999973</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3367,95 +3713,107 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731606700.1576397</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731606700.1576397.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731606700.1576397.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>346.16</v>
       </c>
-      <c r="J58" t="n">
-        <v>346.16</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>347.25</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.089999999999975</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731606706.2780192</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731606708.946091</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606706.2780192.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606708.946091.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>2796.1</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>2790.8</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-5.299999999999727</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -3463,51 +3821,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731606710.371523</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731606712.55749</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606710.371523.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606712.55749.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>2791.55</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>2785.3</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-6.25</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -3515,51 +3879,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731606712.5741398</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731606713.2402458</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606712.5741398.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606713.2402458.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>2785.3</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>2781</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>4.300000000000182</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3567,51 +3937,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731606716.8135855</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731606717.398598</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606716.8135855.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606717.398598.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>2786.2</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>2787.15</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.9500000000002728</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3619,51 +3995,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731606719.845875</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731606720.3788927</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606719.845875.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606720.3788927.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>2781.4</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>2775.45</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>5.950000000000273</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3671,51 +4053,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731606721.1467478</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731606723.0379484</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606721.1467478.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606723.0379484.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>2776.2</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>2780</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-3.800000000000182</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -3723,51 +4111,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731606725.3524487</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731606728.8704886</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606725.3524487.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606728.8704886.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>2779.85</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>2778.1</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.75</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3775,51 +4169,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731606728.9798295</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731606729.7854614</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606728.9798295.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606729.7854614.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>596.5</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>597.6</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -3827,51 +4227,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731606730.7990234</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731606736.1455936</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606730.7990234.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606736.1455936.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>598.1</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>592.3</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-5.800000000000068</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.97</v>
       </c>
     </row>
@@ -3879,51 +4285,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731606736.1615515</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731606736.7908893</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606736.1615515.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606736.7908893.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>592.3</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>591.2</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>1.099999999999909</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3931,51 +4343,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731606744.123858</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731606744.2610974</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606744.123858.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606744.2610974.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>595.2</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>595.3</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.09999999999990905</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3983,51 +4401,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731606750.7272525</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731606752.4878716</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606750.7272525.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606752.4878716.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>591.9</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>590</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>1.899999999999977</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -4035,51 +4459,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731606753.563918</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731606754.2717206</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606753.563918.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606754.2717206.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>590</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>588.9</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4141,19 +4571,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5999999999999801</v>
+        <v>0.4999999999999716</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07499999999999751</v>
+        <v>0.06249999999999645</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -4229,19 +4659,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.699999999999989</v>
+        <v>2.25</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2833333333333314</v>
+        <v>0.375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -4273,19 +4703,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.230000000000004</v>
+        <v>-0.1899999999999835</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.038333333333334</v>
+        <v>-0.03166666666666392</v>
       </c>
       <c r="E8" t="n">
-        <v>0.28</v>
+        <v>-0.24</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="9">
@@ -4317,16 +4747,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19</v>
+        <v>-17.5</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.27</v>
+        <v>-0.25</v>
       </c>
       <c r="F10" t="n">
         <v>-0.05</v>
@@ -4361,19 +4791,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.229999999999905</v>
+        <v>0.1399999999999295</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3074999999999761</v>
+        <v>0.03499999999998238</v>
       </c>
       <c r="E12" t="n">
-        <v>0.36</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
